--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\DemoS_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20BFD8-338A-4B58-A955-40D33E7C654B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66CADA-42A3-4D23-AE93-29FAD2EDD18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -2044,9 +2044,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2508,7 +2508,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2525,7 +2525,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2625,7 +2625,7 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2635,19 +2635,19 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2687,13 +2687,13 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2716,27 +2716,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5142,7 +5142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5208,8 +5208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5753,7 +5753,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
       <c r="H16" s="68">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -6034,7 +6034,7 @@
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6608,7 +6608,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\DemoS_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66CADA-42A3-4D23-AE93-29FAD2EDD18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC537B0-5B9E-482C-88BC-E21132C05205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -5208,8 +5208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6034,7 +6034,7 @@
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6607,7 +6607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -6733,8 +6733,8 @@
         <v>96</v>
       </c>
       <c r="E9" s="71">
-        <f>EnergyBalance!D24-EnergyBalance!D14</f>
-        <v>13413.960000000001</v>
+        <f>EnergyBalance!D24-EnergyBalance!D14+1</f>
+        <v>13414.960000000001</v>
       </c>
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\DemoS_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC537B0-5B9E-482C-88BC-E21132C05205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFFD567-5A78-4AF8-B098-20FC6A142BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -2043,10 +2043,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2657,7 +2658,6 @@
     <xf numFmtId="2" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2741,6 +2741,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -4208,12 +4209,12 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="88" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -4226,10 +4227,10 @@
       <c r="B5" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="86">
         <v>8098.3580000000002</v>
       </c>
       <c r="E5" s="37">
@@ -4264,7 +4265,7 @@
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="89" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="51">
@@ -4301,7 +4302,7 @@
       <c r="B7" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="89" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="51">
@@ -4336,7 +4337,7 @@
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="55" t="s">
@@ -4382,7 +4383,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="35"/>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="90" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="9"/>
@@ -4535,7 +4536,7 @@
       <c r="C14" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="87">
         <f t="shared" ref="D14:L14" si="1">SUM(D10:D13)</f>
         <v>-9817.1540000000023</v>
       </c>
@@ -4575,7 +4576,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="35"/>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="90" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="9"/>
@@ -4897,7 +4898,7 @@
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="84" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="55" t="s">
@@ -5156,22 +5157,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="114" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="69"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="113"/>
+      <c r="B3" s="112"/>
       <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="115" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="113" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5191,11 +5192,11 @@
       <c r="I16" s="70"/>
       <c r="J16" s="70"/>
       <c r="K16" s="70"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5271,98 +5272,98 @@
         <f>EnergyBalance!Q2</f>
         <v>M€2005</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="104" t="s">
+      <c r="M3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="104" t="s">
+      <c r="P3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="S3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="105" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="107" t="str">
+      <c r="L5" s="107"/>
+      <c r="M5" s="106" t="str">
         <f>C2</f>
         <v>COA</v>
       </c>
-      <c r="N5" s="107" t="str">
+      <c r="N5" s="106" t="str">
         <f>D2</f>
         <v>Solid Fuels</v>
       </c>
-      <c r="O5" s="107" t="str">
+      <c r="O5" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="K6" s="12"/>
@@ -5380,17 +5381,17 @@
         <v>13</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="K7" s="102" t="s">
+      <c r="K7" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -5408,40 +5409,40 @@
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="101" t="s">
+      <c r="H8" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="105" t="s">
+      <c r="L8" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="104" t="s">
+      <c r="M8" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="104" t="s">
+      <c r="O8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="104" t="s">
+      <c r="P8" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="104" t="s">
+      <c r="Q8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="104" t="s">
+      <c r="R8" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="104" t="s">
+      <c r="S8" s="103" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5466,31 +5467,31 @@
       <c r="I9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="106" t="s">
+      <c r="L9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="106" t="s">
+      <c r="M9" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="106" t="s">
+      <c r="N9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="106" t="s">
+      <c r="O9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="106" t="s">
+      <c r="P9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="106" t="s">
+      <c r="Q9" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="106" t="s">
+      <c r="S9" s="105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5514,17 +5515,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="K10" s="106" t="s">
+      <c r="K10" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="str">
@@ -5553,27 +5554,27 @@
         <v>6073.7685000000001</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="107" t="str">
+      <c r="K11" s="106" t="str">
         <f>EnergyBalance!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108" t="str">
+      <c r="L11" s="107"/>
+      <c r="M11" s="107" t="str">
         <f>$K$11&amp;$C$2&amp;1</f>
         <v>MINCOA1</v>
       </c>
-      <c r="N11" s="111" t="str">
+      <c r="N11" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
         <v>Domestic Supply of Solid Fuels Step 1</v>
       </c>
-      <c r="O11" s="108" t="str">
+      <c r="O11" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
     </row>
     <row r="12" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
@@ -5586,30 +5587,30 @@
       <c r="F12" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100">
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99">
         <f>I11</f>
         <v>6073.7685000000001</v>
       </c>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108" t="str">
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107" t="str">
         <f>$K$11&amp;$C$2&amp;2</f>
         <v>MINCOA2</v>
       </c>
-      <c r="N12" s="111" t="str">
+      <c r="N12" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M12,1)</f>
         <v>Domestic Supply of Solid Fuels Step 2</v>
       </c>
-      <c r="O12" s="108" t="str">
+      <c r="O12" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
     </row>
     <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="str">
@@ -5637,24 +5638,24 @@
         <f>EnergyBalance!$D$5*EnergyBalance!D38</f>
         <v>2024.5895</v>
       </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108" t="str">
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107" t="str">
         <f>$K$11&amp;$C$2&amp;3</f>
         <v>MINCOA3</v>
       </c>
-      <c r="N13" s="111" t="str">
+      <c r="N13" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M13,1)</f>
         <v>Domestic Supply of Solid Fuels Step 3</v>
       </c>
-      <c r="O13" s="108" t="str">
+      <c r="O13" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
     </row>
     <row r="14" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
@@ -5666,33 +5667,33 @@
       <c r="F14" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100">
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99">
         <f>I13</f>
         <v>2024.5895</v>
       </c>
-      <c r="K14" s="108" t="str">
+      <c r="K14" s="107" t="str">
         <f>EnergyBalance!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108" t="str">
+      <c r="L14" s="107"/>
+      <c r="M14" s="107" t="str">
         <f>$K$14&amp;$C$2&amp;1</f>
         <v>IMPCOA1</v>
       </c>
-      <c r="N14" s="111" t="str">
+      <c r="N14" s="110" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(M14,1)</f>
         <v>Import of Solid Fuels Step 1</v>
       </c>
-      <c r="O14" s="108" t="str">
+      <c r="O14" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -5713,29 +5714,29 @@
       <c r="H15" s="68">
         <v>3</v>
       </c>
-      <c r="I15" s="100"/>
+      <c r="I15" s="99"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="108" t="str">
+      <c r="K15" s="107" t="str">
         <f>EnergyBalance!B7</f>
         <v>EXP</v>
       </c>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108" t="str">
+      <c r="L15" s="107"/>
+      <c r="M15" s="107" t="str">
         <f>$K$15&amp;$C$2&amp;1</f>
         <v>EXPCOA1</v>
       </c>
-      <c r="N15" s="111" t="str">
+      <c r="N15" s="110" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(M15,1)</f>
         <v>Export of Solid Fuels Step 1</v>
       </c>
-      <c r="O15" s="108" t="str">
+      <c r="O15" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -5812,7 +5813,7 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18"/>
-      <c r="I18" s="100">
+      <c r="I18" s="99">
         <f>I17</f>
         <v>1147.069</v>
       </c>
@@ -6085,11 +6086,11 @@
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
       </c>
-      <c r="C2" s="72" t="str">
+      <c r="C2" s="71" t="str">
         <f>EnergyBalance!C8</f>
         <v>Total Primary Supply</v>
       </c>
-      <c r="D2" s="72" t="str">
+      <c r="D2" s="71" t="str">
         <f>"Demand Technology"</f>
         <v>Demand Technology</v>
       </c>
@@ -6104,107 +6105,107 @@
       <c r="H2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="104" t="s">
+      <c r="P3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="S3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="104" t="s">
+      <c r="T3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:20" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="L4" s="106" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="L4" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="106" t="s">
+      <c r="T4" s="105" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:20" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="L5" s="107" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="L5" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="107" t="str">
+      <c r="M5" s="107"/>
+      <c r="N5" s="106" t="str">
         <f>B2&amp;EnergyBalance!D2</f>
         <v>TPSCOA</v>
       </c>
-      <c r="O5" s="107" t="str">
+      <c r="O5" s="106" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!D2</f>
         <v>Demand Total Primary Supply - COA</v>
       </c>
-      <c r="P5" s="107" t="str">
+      <c r="P5" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D8" s="5" t="s">
@@ -6213,73 +6214,73 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="L8" s="102" t="s">
+      <c r="I8" s="73"/>
+      <c r="J8" s="74"/>
+      <c r="L8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="104" t="s">
+      <c r="L9" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="105" t="s">
+      <c r="M9" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="104" t="s">
+      <c r="N9" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="104" t="s">
+      <c r="O9" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="104" t="s">
+      <c r="P9" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="104" t="s">
+      <c r="Q9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="104" t="s">
+      <c r="R9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="104" t="s">
+      <c r="S9" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="104" t="s">
+      <c r="T9" s="103" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6299,7 +6300,7 @@
       <c r="F10" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="91" t="s">
         <v>137</v>
       </c>
       <c r="H10" s="17" t="s">
@@ -6311,31 +6312,31 @@
       <c r="J10" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="L10" s="106" t="s">
+      <c r="L10" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="106" t="s">
+      <c r="M10" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="106" t="s">
+      <c r="N10" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="106" t="s">
+      <c r="O10" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="106" t="s">
+      <c r="P10" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="106" t="s">
+      <c r="Q10" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="106" t="s">
+      <c r="R10" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="S10" s="106" t="s">
+      <c r="S10" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="106" t="s">
+      <c r="T10" s="105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6350,7 +6351,7 @@
         <v>PJa</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="78"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="15" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
@@ -6362,17 +6363,17 @@
       <c r="J11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="L11" s="106" t="s">
+      <c r="L11" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
@@ -6388,58 +6389,58 @@
         <v>TPSCOA</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="79">
+      <c r="F12" s="78">
         <v>1</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="78">
         <v>0.95</v>
       </c>
       <c r="H12" s="45">
         <v>10</v>
       </c>
-      <c r="I12" s="79">
+      <c r="I12" s="78">
         <f>H12*0.02</f>
         <v>0.2</v>
       </c>
       <c r="J12" s="45">
         <v>20</v>
       </c>
-      <c r="L12" s="107" t="s">
+      <c r="L12" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108" t="str">
+      <c r="M12" s="107"/>
+      <c r="N12" s="107" t="str">
         <f>LEFT(L12,1)&amp;B2&amp;RIGHT(O12,3)</f>
         <v>DTPSCOA</v>
       </c>
-      <c r="O12" s="112" t="str">
+      <c r="O12" s="111" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!D2</f>
         <v>Demand Technology Total Primary Supply - COA</v>
       </c>
-      <c r="P12" s="108" t="str">
+      <c r="P12" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q12" s="108" t="str">
+      <c r="Q12" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D13" s="6"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="84"/>
+      <c r="I13" s="83"/>
       <c r="J13" s="6"/>
       <c r="L13" s="12"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="80"/>
+      <c r="O13" s="79"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -6450,11 +6451,11 @@
       <c r="B14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -6468,11 +6469,11 @@
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -6516,7 +6517,7 @@
       <c r="T17" s="6"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I18" s="76"/>
+      <c r="I18" s="75"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -6528,7 +6529,7 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I19" s="76"/>
+      <c r="I19" s="75"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -6661,11 +6662,11 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -6680,11 +6681,11 @@
       <c r="E6" s="3">
         <v>2005</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="82"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
@@ -6699,11 +6700,11 @@
       <c r="E7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="82"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="81"/>
     </row>
     <row r="8" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -6715,11 +6716,11 @@
         <f>E2</f>
         <v>PJ</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="82"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
@@ -6732,74 +6733,74 @@
       <c r="D9" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="71">
-        <f>EnergyBalance!D24-EnergyBalance!D14+1</f>
-        <v>13414.960000000001</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
+      <c r="E9" s="116">
+        <f>EnergyBalance!D24-EnergyBalance!D14</f>
+        <v>13413.960000000001</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="82"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="82"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E12" s="32"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E13" s="10"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E15" s="10"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="45"/>
